--- a/Test_Daten.xlsx
+++ b/Test_Daten.xlsx
@@ -113,15 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -3027,22 +3021,21 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1"/>
   <dataValidations count="2">
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B2">
       <formula1>1</formula1>

--- a/Test_Daten.xlsx
+++ b/Test_Daten.xlsx
@@ -6,9 +6,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Daten" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Datenüberprüfung" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Dropdown" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Datenblatt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Datenüberprüfung" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Dropdown" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -73,9 +74,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <b/>
+      <u val="single"/>
     </font>
     <font>
       <sz val="11"/>
@@ -96,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,21 +105,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +413,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -428,19 +428,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -459,6 +459,9 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <f>A2 + B2</f>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
@@ -3012,6 +3015,25 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <f>=HYPERLINK("#'Datenblatt'!B1", "Link zu Iris-Datensatz")</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="30.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="12.71" hidden="0" customWidth="1"/>
@@ -3021,21 +3043,22 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1"/>
   <dataValidations count="2">
     <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B2">
       <formula1>1</formula1>
@@ -3052,7 +3075,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Dropdown'!$A$1:$A$3</xm:f>
+            <xm:f>'#Dropdown'!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B6</xm:sqref>
         </x14:dataValidation>
@@ -3062,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Test_Daten.xlsx
+++ b/Test_Daten.xlsx
@@ -6,9 +6,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datenblatt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Daten" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Datenüberprüfung" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Datenpruefung" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Dropdown" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
@@ -3018,7 +3018,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>=HYPERLINK("#'Datenblatt'!B1", "Link zu Iris-Datensatz")</f>
+        <f>=HYPERLINK("#'Daten'!B1", "Link zu Iris-Datensatz")</f>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3075,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'#Dropdown'!$A$1:$A$3</xm:f>
+            <xm:f>Dropdown!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B6</xm:sqref>
         </x14:dataValidation>
